--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC54305-1D4D-4D50-AE4E-59CD425837B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C85FBF-1C95-4AAF-9749-1925C1906123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="2376" yWindow="3264" windowWidth="38736" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>relate_type</t>
   </si>
   <si>
-    <t>occure_condition</t>
-  </si>
-  <si>
     <t>occur_value</t>
   </si>
   <si>
@@ -208,6 +205,10 @@
   </si>
   <si>
     <t>페이지 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occur_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +623,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -641,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,92 +657,92 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -749,10 +750,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -770,11 +771,11 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -789,10 +790,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -800,10 +801,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -812,10 +813,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -833,10 +834,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -852,10 +853,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -875,10 +876,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -898,14 +899,14 @@
         <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -923,10 +924,10 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -944,10 +945,10 @@
         <v>1021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -963,14 +964,14 @@
         <v>1021</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -986,10 +987,10 @@
         <v>1021</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1007,10 +1008,10 @@
         <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1026,10 +1027,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1047,10 +1048,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1068,11 +1069,11 @@
         <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1087,10 +1088,10 @@
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1119,10 +1120,10 @@
         <v>105</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1151,15 +1152,15 @@
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1">
         <v>100003</v>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C85FBF-1C95-4AAF-9749-1925C1906123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF3E4A2-D9EA-4CEE-A300-AEA303D4C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="3264" windowWidth="38736" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11184" yWindow="6552" windowWidth="17136" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>type</t>
   </si>
@@ -47,9 +47,6 @@
     <t>relate_value</t>
   </si>
   <si>
-    <t>relate_type</t>
-  </si>
-  <si>
     <t>occur_value</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>{0}이 {1} {2}했습니다.</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>다음으로 이동한다.</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>체력이 30 소모되었습니다.</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
     <t>아무 일도 일어나지 않았다.</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>타입에 따라 받는 값</t>
   </si>
   <si>
-    <t>타입에 따라 받는 다른 타입값</t>
-  </si>
-  <si>
     <t>해당 항목 발생 조건</t>
   </si>
   <si>
@@ -176,13 +164,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>enum: plot_type</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>enum</t>
   </si>
   <si>
     <t>prob</t>
@@ -209,6 +191,22 @@
   </si>
   <si>
     <t>occur_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, -30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:page_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:occur_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,16 +246,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,22 +279,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,10 +301,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,140 +623,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="3" width="41.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="2" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
+    <col min="4" max="10" width="12" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -761,21 +750,20 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="b">
+      <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -783,61 +771,58 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <v>103</v>
       </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -846,109 +831,102 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>40</v>
+      </c>
       <c r="H9" s="1">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
         <v>100001</v>
       </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
       <c r="H10" s="1">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1">
         <v>100002</v>
       </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
-        <v>20</v>
-      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <v>104</v>
       </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -957,61 +935,56 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>-30</v>
-      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1021</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="H15" s="1">
         <v>104</v>
       </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1020,38 +993,36 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
         <v>104</v>
       </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1059,21 +1030,20 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="b">
+      <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1081,26 +1051,25 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="H20" s="1">
         <v>106</v>
       </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1113,26 +1082,25 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>105</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="H21" s="1">
         <v>107</v>
       </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1145,30 +1113,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1">
         <v>100003</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
         <v>108</v>
       </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1181,47 +1148,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF3E4A2-D9EA-4CEE-A300-AEA303D4C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24A562-1392-4B52-A82A-8209B786079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11184" yWindow="6552" windowWidth="17136" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="3744" yWindow="1584" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -719,7 +719,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>43</v>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24A562-1392-4B52-A82A-8209B786079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC29B80-521E-4F56-9C2E-446E293921E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="1584" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="3900" yWindow="1656" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>{0}이 {1} {2}했습니다.</t>
-  </si>
-  <si>
     <t>다음으로 이동한다.</t>
   </si>
   <si>
@@ -207,6 +204,10 @@
   </si>
   <si>
     <t>enum:occur_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20 증가했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -640,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -652,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -667,71 +668,71 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -790,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -884,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -893,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -906,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -926,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -944,14 +945,14 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -964,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -984,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1002,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1022,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1060,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1091,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1122,11 +1123,11 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
         <v>100003</v>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC29B80-521E-4F56-9C2E-446E293921E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230165A4-0871-4C9F-AEF1-A2F8FB05730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1656" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5184" yWindow="4608" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>type</t>
   </si>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>체력이 20 증가했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -849,8 +857,8 @@
       <c r="G9" s="1">
         <v>40</v>
       </c>
-      <c r="H9" s="1">
-        <v>100001</v>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -871,8 +879,8 @@
       <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="H10" s="1">
-        <v>100002</v>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230165A4-0871-4C9F-AEF1-A2F8FB05730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58096D-693E-4193-BB45-ED273B0E7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5184" yWindow="4608" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>type</t>
   </si>
@@ -62,168 +62,289 @@
     <t>text</t>
   </si>
   <si>
-    <t>늑대가 나타났다.</t>
+    <t>button</t>
+  </si>
+  <si>
+    <t>is_renew_page</t>
+  </si>
+  <si>
+    <t>항목의 기능 타입</t>
+  </si>
+  <si>
+    <t>출력할 텍스트</t>
+  </si>
+  <si>
+    <t>타입에 따라 받는 값</t>
+  </si>
+  <si>
+    <t>해당 항목 발생 조건</t>
+  </si>
+  <si>
+    <t>해당 항목 발생 조건에 따른 값</t>
+  </si>
+  <si>
+    <t>해당 항목 발생 확률</t>
+  </si>
+  <si>
+    <t>타입에 따라 발생할 결과값</t>
+  </si>
+  <si>
+    <t>타입에 따라 결과가 발생할 확률</t>
+  </si>
+  <si>
+    <t>페이지 갱신 여부</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>prob[]</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occur_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:page_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:occur_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이지…? 왠지 불안하네…</t>
+  </si>
+  <si>
+    <t>어차피 휴일이라 나갈 생각 없는데 뭐.</t>
+  </si>
+  <si>
+    <t>불안함을 느낀 당신은 어머니에게 전화를 걸었다. 그러나 연결음만 계속될 뿐, 어머니의 목소리는 들려오지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니의 전화를 대수롭지 않게 생각한 당신은 침대에서 나와 기지개를 켰다. 찌뿌둥하던 몸이 조금 개운해졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV를 켜 보자.</t>
+  </si>
+  <si>
+    <t>SNS에 뭔가 올라왔을지도 몰라.</t>
+  </si>
+  <si>
+    <t>베란다로 나가 봐야겠어.</t>
+  </si>
+  <si>
+    <t>다음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - &lt;속보&gt; 전세계 곳곳에서 괴현상 발생
+TV를 켜자 예능 화면 위로 뉴스 속보 자막이 떠 있는 게 보인다. 당신은 채널을 돌려 뉴스를 틀었다.
+"…뿐만 아니라 괴생명체가 출현하여 시민들을 공격하고 있으며, 정부가 빠르게 군대를 동원하였으나…"
+괴생명체, 정부, 군대…. 믿을 수 없는 이야기가 TV에서 흘러나오고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베란다 밖으로 나가려던 당신은 걸음을 멈췄다. 굳이 나가지 않아도 바깥 풍경이 잘 보였기 때문이다.
+저기 멀리 길가에 피를 흘리고 쓰러진 사람이 있었다. 그리고 그 옆엔… 괴물. 게임에서 봤던 몬스터같이 생긴 무언가가 사람들을 공격하고 있다.
+도무지 믿어지지 않는 상황에 당신은 몇 번이나 눈을 깜박이고 뺨을 때려도 봤지만 풍경은 바뀌지 않았다. 이 말도 안 되는 상황이 실제인 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNS에 들어가자 최근 게시물에 낯선 영상이 보였다. 엉망진창으로 찍힌 짧은 영상에는 게임에서나 나올 것 같은 괴생명체가 담겨 있었다.
+당신은 빠르게 SNS를 훑었다. 괴생명체가 찍힌 영상이나 사진은 한두 개가 아니었다.
+ - 미친; 살려줘 ㅅㅂ..
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>└</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글: 뭐야 실제임?????
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>└</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글: 야 이거 찍은애 죽은 거 아니냐..
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>└</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글: CG 아니고 진짜라고??
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>└</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글: 이야 요즘 영화 홍보 신박하게 하넼ㅋㅋㅋㅋ
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>└</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글: 이거 영화 아니고 실제임;;
+영화 촬영이나 홍보쯤으로 생각하는 사람들도 있는 듯했지만, 당신이 보기에 이 상황은 실제였다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠깐, 그럼 엄마는…?</t>
+  </si>
+  <si>
+    <t>나만 안전하게 있을 순 없어.</t>
+  </si>
+  <si>
+    <t>당신은 이제야 어머니가 전화를 건 이유를 알았다. 엄마가 집에서 나가지 말라고 했던 건 바로 저 괴물들을 봤기 때문이 분명했다…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 주먹을 꽉 쥐었다. 엄마는 절대 집 밖으로 나오지 말라고 했지만 그럴 수 없었다. 왜냐하면 당신은 가족을 버려둔 채 혼자 몸을 숨길 바에야, 가족과 함께 위험 속으로 뛰어들 사람이었으므로.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결심을 마친 당신은 휴대폰을 주머니에 넣은 뒤 집을 둘러보았다.
+밖으로 나가는 건 좋지만 아무런 대비도 없이 나갈 수는 없다. 이럴 때일수록 신중하게, 필요한 것들을 챙겨야 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>img</t>
   </si>
   <si>
-    <t>img_wolf</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>싸운다</t>
-  </si>
-  <si>
-    <t>102, 1021</t>
-  </si>
-  <si>
-    <t>도망친다</t>
-  </si>
-  <si>
-    <t>승리했다.</t>
-  </si>
-  <si>
-    <t>get_item</t>
-  </si>
-  <si>
-    <t>늑대 가죽을 획득했습니다.</t>
-  </si>
-  <si>
-    <t>늑대 이빨을 획득했습니다.</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>다음으로 이동한다.</t>
-  </si>
-  <si>
-    <t>패배했다.</t>
-  </si>
-  <si>
-    <t>체력이 30 소모되었습니다.</t>
-  </si>
-  <si>
-    <t>아무 일도 일어나지 않았다.</t>
-  </si>
-  <si>
-    <t>던전 입구를 발견했다!</t>
-  </si>
-  <si>
-    <t>img_dungeon</t>
-  </si>
-  <si>
-    <t>무시한다.</t>
-  </si>
-  <si>
-    <t>들어간다.</t>
-  </si>
-  <si>
-    <t>뒷문으로 들어간다.</t>
-  </si>
-  <si>
-    <t>own_item</t>
-  </si>
-  <si>
-    <t>is_renew_page</t>
-  </si>
-  <si>
-    <t>항목의 기능 타입</t>
-  </si>
-  <si>
-    <t>출력할 텍스트</t>
-  </si>
-  <si>
-    <t>타입에 따라 받는 값</t>
-  </si>
-  <si>
-    <t>해당 항목 발생 조건</t>
-  </si>
-  <si>
-    <t>해당 항목 발생 조건에 따른 값</t>
-  </si>
-  <si>
-    <t>해당 항목 발생 확률</t>
-  </si>
-  <si>
-    <t>타입에 따라 발생할 결과값</t>
-  </si>
-  <si>
-    <t>타입에 따라 결과가 발생할 확률</t>
-  </si>
-  <si>
-    <t>페이지 갱신 여부</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>prob</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>prob[]</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>50, 50</t>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>occur_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, -30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:page_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:occur_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 20 증가했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여느 때와 같은 휴일, 당신은 휴대폰 진동 소리에 잠에서 깨어났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지이잉-
+"절대 집에서 나오지 마! 알았지? 엄마 말 들어…!"
+뭐라 대답할 틈도 없이 다급하게 흘러나온 스피커 너머의 소리가 어색하게 뚝- 끊어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_phone</t>
+  </si>
+  <si>
+    <t>당신은 일단 거실로 나왔다. 베란다 창 너머로 바깥 풍경이 보인다. 그런데 어쩐지 바깥 풍경이 평소와 다른 것만 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보랏빛 하늘. 가만히 창밖을 보던 당신은 하늘이 이상한 것을 깨달았다. 오전 11시, 한창 푸르게 빛나야 할 하늘이 왜 저런 빛을 띠는 것일까. 왠지 모를 불길함이 당신을 덮쳐 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_purple_sky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +385,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +444,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,24 +765,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
     <col min="4" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="3"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -661,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -676,82 +809,82 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -763,16 +896,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -781,161 +914,149 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>103</v>
+        <v>1011</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1012</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>102</v>
+        <v>1011</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>102</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>102</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>102</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1021</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -943,117 +1064,117 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1021</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1021</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>104</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1021</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <v>104</v>
+        <v>1022</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>1023</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>104</v>
+        <v>1021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1061,102 +1182,139 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="159.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="96" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>103</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>103</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>104</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="3">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>106</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    </row>
+    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>105</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>107</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100003</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>108</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58096D-693E-4193-BB45-ED273B0E7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1DE7E-BC5D-471E-B182-6C441A56DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="2640" yWindow="13056" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -338,6 +338,19 @@
   </si>
   <si>
     <t>img_purple_sky</t>
+  </si>
+  <si>
+    <t>result_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과에서 선택할 개수
+(1개만 선택할 경우 1 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -765,22 +778,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
-    <col min="4" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
+    <col min="4" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -806,13 +819,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -838,13 +854,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -870,13 +889,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -892,11 +914,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="b">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -913,8 +936,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -931,8 +955,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -951,8 +976,9 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -971,8 +997,9 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1011</v>
       </c>
@@ -989,8 +1016,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1011</v>
       </c>
@@ -1009,8 +1037,9 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1012</v>
       </c>
@@ -1027,8 +1056,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012</v>
       </c>
@@ -1047,8 +1077,9 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -1064,11 +1095,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="b">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -1085,8 +1117,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -1103,8 +1136,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -1123,8 +1157,9 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -1143,8 +1178,9 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -1163,8 +1199,9 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1021</v>
       </c>
@@ -1181,8 +1218,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>1021</v>
       </c>
@@ -1196,7 +1234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="159.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="171.6" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>1022</v>
       </c>
@@ -1207,7 +1245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>1022</v>
       </c>
@@ -1221,7 +1259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="96" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="105.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1023</v>
       </c>
@@ -1232,7 +1270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>1023</v>
       </c>
@@ -1246,7 +1284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>103</v>
       </c>
@@ -1256,11 +1294,11 @@
       <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="3" t="b">
+      <c r="K25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>103</v>
       </c>
@@ -1274,7 +1312,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>104</v>
       </c>
@@ -1284,11 +1322,11 @@
       <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="3" t="b">
+      <c r="K27" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>104</v>
       </c>
@@ -1302,7 +1340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>105</v>
       </c>
@@ -1312,7 +1350,7 @@
       <c r="C29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="3" t="b">
+      <c r="K29" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1DE7E-BC5D-471E-B182-6C441A56DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CECC71-5361-413E-B842-2C999A3A2E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="13056" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>type</t>
   </si>
@@ -163,201 +163,230 @@
     <t>다음</t>
   </si>
   <si>
-    <t xml:space="preserve"> - &lt;속보&gt; 전세계 곳곳에서 괴현상 발생
+    <t>베란다 밖으로 나가려던 당신은 걸음을 멈췄다. 굳이 나가지 않아도 바깥 풍경이 잘 보였기 때문이다.
+저기 멀리 길가에 피를 흘리고 쓰러진 사람이 있었다. 그리고 그 옆엔… 괴물. 게임에서 봤던 몬스터같이 생긴 무언가가 사람들을 공격하고 있다.
+도무지 믿어지지 않는 상황에 당신은 몇 번이나 눈을 깜박이고 뺨을 때려도 봤지만 풍경은 바뀌지 않았다. 이 말도 안 되는 상황이 실제인 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠깐, 그럼 엄마는…?</t>
+  </si>
+  <si>
+    <t>나만 안전하게 있을 순 없어.</t>
+  </si>
+  <si>
+    <t>당신은 이제야 어머니가 전화를 건 이유를 알았다. 엄마가 집에서 나가지 말라고 했던 건 바로 저 괴물들을 봤기 때문이 분명했다…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 주먹을 꽉 쥐었다. 엄마는 절대 집 밖으로 나오지 말라고 했지만 그럴 수 없었다. 왜냐하면 당신은 가족을 버려둔 채 혼자 몸을 숨길 바에야, 가족과 함께 위험 속으로 뛰어들 사람이었으므로.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결심을 마친 당신은 휴대폰을 주머니에 넣은 뒤 집을 둘러보았다.
+밖으로 나가는 건 좋지만 아무런 대비도 없이 나갈 수는 없다. 이럴 때일수록 신중하게, 필요한 것들을 챙겨야 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여느 때와 같은 휴일, 당신은 휴대폰 진동 소리에 잠에서 깨어났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지이잉-
+"절대 집에서 나오지 마! 알았지? 엄마 말 들어…!"
+뭐라 대답할 틈도 없이 다급하게 흘러나온 스피커 너머의 소리가 어색하게 뚝- 끊어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_phone</t>
+  </si>
+  <si>
+    <t>당신은 일단 거실로 나왔다. 베란다 창 너머로 바깥 풍경이 보인다. 그런데 어쩐지 바깥 풍경이 평소와 다른 것만 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보랏빛 하늘. 가만히 창밖을 보던 당신은 하늘이 이상한 것을 깨달았다. 오전 11시, 한창 푸르게 빛나야 할 하늘이 왜 저런 빛을 띠는 것일까. 왠지 모를 불길함이 당신을 덮쳐 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_purple_sky</t>
+  </si>
+  <si>
+    <t>result_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과에서 선택할 개수
+(1개만 선택할 경우 1 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive_group</t>
+  </si>
+  <si>
+    <t>골프채</t>
+  </si>
+  <si>
+    <t>당신은 아버지의 골프채를 챙겼다.</t>
+  </si>
+  <si>
+    <t>부엌칼</t>
+  </si>
+  <si>
+    <t>당신은 주방에서 부엌칼을 챙겼다.</t>
+  </si>
+  <si>
+    <t>우산</t>
+  </si>
+  <si>
+    <t>당신은 길고 튼튼한 우산을 챙겼다.</t>
+  </si>
+  <si>
+    <t>망원경</t>
+  </si>
+  <si>
+    <t>당신은 방구석에 처박아 두었던 망원경을 챙겼다.</t>
+  </si>
+  <si>
+    <t>구급약품</t>
+  </si>
+  <si>
+    <t>당신은 집에 남아 있던 구급약품을 챙겼다.</t>
+  </si>
+  <si>
+    <t>장갑</t>
+  </si>
+  <si>
+    <t>당신은 두껍고 튼튼한 장갑을 챙겼다.</t>
+  </si>
+  <si>
+    <t>망치</t>
+  </si>
+  <si>
+    <t>당신은 크고 단단한 망치를 챙겼다.</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>당신은 여차하면 무기로도 쓸 수 있는 기타를 챙겼다.</t>
+  </si>
+  <si>
+    <t>1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 준비가 충분하지 않다고 생각한 당신은 좀 더 집을 둘러봤다.
+더 챙길 것이 없을까? 고민에 빠진 당신의 시선이 빠르게 집 안을 훑었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;속보&gt; 전세계 곳곳에서 괴현상 발생]
 TV를 켜자 예능 화면 위로 뉴스 속보 자막이 떠 있는 게 보인다. 당신은 채널을 돌려 뉴스를 틀었다.
 "…뿐만 아니라 괴생명체가 출현하여 시민들을 공격하고 있으며, 정부가 빠르게 군대를 동원하였으나…"
 괴생명체, 정부, 군대…. 믿을 수 없는 이야기가 TV에서 흘러나오고 있었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베란다 밖으로 나가려던 당신은 걸음을 멈췄다. 굳이 나가지 않아도 바깥 풍경이 잘 보였기 때문이다.
-저기 멀리 길가에 피를 흘리고 쓰러진 사람이 있었다. 그리고 그 옆엔… 괴물. 게임에서 봤던 몬스터같이 생긴 무언가가 사람들을 공격하고 있다.
-도무지 믿어지지 않는 상황에 당신은 몇 번이나 눈을 깜박이고 뺨을 때려도 봤지만 풍경은 바뀌지 않았다. 이 말도 안 되는 상황이 실제인 것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNS에 들어가자 최근 게시물에 낯선 영상이 보였다. 엉망진창으로 찍힌 짧은 영상에는 게임에서나 나올 것 같은 괴생명체가 담겨 있었다.
+    <t>SNS에 들어가자 최근 게시물에 낯선 영상이 보였다. 엉망진창으로 찍힌 짧은 영상에는 게임에서나 나올 것 같은 괴생명체가 담겨 있었다.
 당신은 빠르게 SNS를 훑었다. 괴생명체가 찍힌 영상이나 사진은 한두 개가 아니었다.
- - 미친; 살려줘 ㅅㅂ..
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>└</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 댓글: 뭐야 실제임?????
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>└</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 댓글: 야 이거 찍은애 죽은 거 아니냐..
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>└</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 댓글: CG 아니고 진짜라고??
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>└</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 댓글: 이야 요즘 영화 홍보 신박하게 하넼ㅋㅋㅋㅋ
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>└</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 댓글: 이거 영화 아니고 실제임;;
+[미친; 살려줘 ㅅㅂ..
+댓글: 뭐야 실제임?????
+댓글: 야 이거 찍은애 죽은 거 아니냐..
+댓글: CG 아니고 진짜라고??
+댓글: 이야 요즘 영화 홍보 신박하게 하넼ㅋㅋㅋㅋ
+댓글: 이거 영화 아니고 실제임;;]
 영화 촬영이나 홍보쯤으로 생각하는 사람들도 있는 듯했지만, 당신이 보기에 이 상황은 실제였다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠깐, 그럼 엄마는…?</t>
-  </si>
-  <si>
-    <t>나만 안전하게 있을 순 없어.</t>
-  </si>
-  <si>
-    <t>당신은 이제야 어머니가 전화를 건 이유를 알았다. 엄마가 집에서 나가지 말라고 했던 건 바로 저 괴물들을 봤기 때문이 분명했다…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 주먹을 꽉 쥐었다. 엄마는 절대 집 밖으로 나오지 말라고 했지만 그럴 수 없었다. 왜냐하면 당신은 가족을 버려둔 채 혼자 몸을 숨길 바에야, 가족과 함께 위험 속으로 뛰어들 사람이었으므로.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결심을 마친 당신은 휴대폰을 주머니에 넣은 뒤 집을 둘러보았다.
-밖으로 나가는 건 좋지만 아무런 대비도 없이 나갈 수는 없다. 이럴 때일수록 신중하게, 필요한 것들을 챙겨야 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여느 때와 같은 휴일, 당신은 휴대폰 진동 소리에 잠에서 깨어났다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지이잉-
-"절대 집에서 나오지 마! 알았지? 엄마 말 들어…!"
-뭐라 대답할 틈도 없이 다급하게 흘러나온 스피커 너머의 소리가 어색하게 뚝- 끊어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_phone</t>
-  </si>
-  <si>
-    <t>당신은 일단 거실로 나왔다. 베란다 창 너머로 바깥 풍경이 보인다. 그런데 어쩐지 바깥 풍경이 평소와 다른 것만 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보랏빛 하늘. 가만히 창밖을 보던 당신은 하늘이 이상한 것을 깨달았다. 오전 11시, 한창 푸르게 빛나야 할 하늘이 왜 저런 빛을 띠는 것일까. 왠지 모를 불길함이 당신을 덮쳐 왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_purple_sky</t>
-  </si>
-  <si>
-    <t>result_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과에서 선택할 개수
-(1개만 선택할 경우 1 입력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 마지막으로 상황을 점검했다.
+이대로 나가자니 왠지 허전한 기분이다. 뭔가 하나쯤 더 챙기면 좋을 것 같았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아… 이제 나가자!</t>
+  </si>
+  <si>
+    <t>당신은 이만하면 충분하다고 생각했다. 더는 시간을 지체할 수 없었다. 이제 정말로 나가야 할 때였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더는 못 기다리겠어.</t>
+  </si>
+  <si>
+    <t>조금만 더 기다려 보자….</t>
+  </si>
+  <si>
+    <t>띵동-</t>
+  </si>
+  <si>
+    <t>집 밖으로 나온 당신은 엘리베이터를 기다렸다. 그러나 엘리베이터는 최고층에서 멈춘 채, 한참을 움직이지 않는다.
+지금 당신이 있는 곳은 13층. 계단을 이용한다면 한참을 걸어 내려가야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 계단을 통해 1층으로 내려갔다. 출입문 앞에 서서 엘리베이터를 보니 여전히 최고층이다.
+다리가 좀 아프긴 하지만 계단을 이용하길 잘했다고, 그렇게 생각하며 당신은 출입문을 지났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 10분을 더 기다렸다. 최고층에서 꿈쩍도 하지 않던 엘리베이터가 드디어 내려오기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기다리던 엘리베이터가 서고 문이 열렸다. 그런데 엘리베이터 안에 있는 사람이… 피 묻은 칼을 들고 서 있다.
+칼을 든 사람과 눈이 마주친 당신은 직감적으로 피해야 한다는 것을 느꼈다. 한 걸음, 두 걸음, 당신의 걸음이 점점 엘리베이터에서 멀어졌다. 곧, 당신은 빠르게 계단을 향해 달렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행히 엘리베이터 앞 현관은 아직 고요했다.
+최고층에 멈춰 서 있는 엘리베이터를 본 당신은 망설임 없이 계단으로 이동했다. 재난 상황에서는 엘리베이터보다 계단을 이용하는 게 더 안전하니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109, 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_elevator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,12 +426,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -778,22 +801,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
     <col min="4" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="3"/>
+    <col min="12" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -819,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
@@ -828,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -854,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -863,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -889,7 +912,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>23</v>
@@ -898,7 +921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -906,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -919,16 +942,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -938,7 +961,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -946,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -957,7 +980,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -978,7 +1001,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -999,7 +1022,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1011</v>
       </c>
@@ -1018,7 +1041,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1011</v>
       </c>
@@ -1039,7 +1062,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1012</v>
       </c>
@@ -1058,7 +1081,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1012</v>
       </c>
@@ -1079,7 +1102,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -1087,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1100,16 +1123,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1119,7 +1142,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -1127,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1138,7 +1161,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -1159,7 +1182,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -1180,7 +1203,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -1201,7 +1224,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1021</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1220,7 +1243,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1021</v>
       </c>
@@ -1234,7 +1257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="171.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1022</v>
       </c>
@@ -1242,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1022</v>
       </c>
@@ -1259,7 +1282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="105.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="96" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1023</v>
       </c>
@@ -1267,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1023</v>
       </c>
@@ -1284,7 +1307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>103</v>
       </c>
@@ -1292,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>103</v>
       </c>
@@ -1306,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H26" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>104</v>
       </c>
@@ -1320,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>104</v>
       </c>
@@ -1334,24 +1357,1191 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>105</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="K29" s="3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1051</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1052</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1053</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1054</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1055</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1056</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1057</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1058</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="3">
+        <v>10581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>10511</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>10511</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>10521</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>10521</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>10531</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>10531</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>10541</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>10541</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>10551</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>10551</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>10561</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>10561</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>10571</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>10571</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>10581</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>10581</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>1061</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="3">
+        <v>10611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>1062</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="3">
+        <v>10621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>1063</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>1064</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>1065</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>1066</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="3">
+        <v>10661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>1067</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>1068</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>10611</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>10611</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>10621</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>10621</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>10631</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>10631</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>10641</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>10641</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>10651</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>10651</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>10661</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>10661</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>10671</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>10671</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>10681</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>10681</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>107</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="3">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K79" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>1071</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="3">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>1072</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="3">
+        <v>10721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>1073</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="3">
+        <v>10731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>1074</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>1075</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H84" s="3">
+        <v>10751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>1076</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" s="3">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>1077</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" s="3">
+        <v>10771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>1078</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="3">
+        <v>10781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>10711</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>10711</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>10721</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>10721</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>10731</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>10731</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>10741</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>10741</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>10751</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>10751</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>10761</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>10761</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>10771</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>10771</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>10781</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>10781</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>108</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K104" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>108</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K106" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>109</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" s="3">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>1091</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>1091</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>110</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K116" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>110</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C3DAF-C4D3-4105-8250-8D7095AD5F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98EE2E-0D58-4BC4-B20B-7755D2E13518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5376" yWindow="5832" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -392,6 +392,18 @@
   <si>
     <t>대피소도 위험한 건 마찬가지라면, 부모님을 만나러 가는 게 낫지 않을까요? 불길한 생각을 하고 싶지는 않지만... 어쩌면 영영 부모님을 못 보게 될지도 모르고요.
 결심을 마친 당신은 미련 없이 돌아섰습니다. 대피소가 있는 뒤쪽에서 들려오던 사람들의 비명 소리가 조금씩 옅어집니다.</t>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 테스트용 테스트 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001, 1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -813,22 +825,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
     <col min="4" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="3"/>
+    <col min="12" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -863,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -898,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -933,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -952,7 +964,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -971,7 +983,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -990,7 +1002,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -1009,7 +1021,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -1032,7 +1044,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -1053,116 +1065,118 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="168" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1011</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>102</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="192" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>102</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>102</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>102</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1171,17 +1185,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1190,328 +1204,333 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>102</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>102</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1014</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>102</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
         <v>102</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <v>103</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="3" t="b">
+      <c r="K23" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
         <v>1031</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>10311</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
         <v>1032</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>10321</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <v>1033</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>10331</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
         <v>1034</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>10341</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <v>1035</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>10351</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>10311</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>10311</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>10311</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>10321</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>10321</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>10321</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>10331</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>10331</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>10331</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>10341</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>10341</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>10341</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>10351</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>10351</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>10351</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>104</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>104</v>
       </c>
@@ -1519,10 +1538,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="K39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>104</v>
       </c>
@@ -1530,161 +1552,158 @@
         <v>7</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <v>104</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>105</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H44" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>106</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="66" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <v>106</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H46" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>107</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="66" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>107</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>108</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>108</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <v>108</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>109</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="K51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>109</v>
       </c>
@@ -1692,267 +1711,281 @@
         <v>8</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>109</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>1096</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>1091</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K53" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>1091</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>1091</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H55" s="8">
         <v>1092</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>1092</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="79.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>1092</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="3">
         <v>1093</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>1093</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>1093</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <v>1093</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="3">
         <v>1094</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>1094</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>1094</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <v>1094</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="3">
         <v>1095</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>1095</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K61" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="171.6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>1095</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <v>1095</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>1096</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K63" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="66" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>1096</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <v>1096</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="3">
         <v>1097</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="96" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>1097</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="105.6" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>1097</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <v>1097</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="3">
         <v>1098</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>1098</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>1098</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <v>1098</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>1099</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K69" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="79.2" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>1099</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <v>1099</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C79" s="8"/>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="8"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="8"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="8"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="8"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C105" s="8"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C110" s="8"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C112" s="8"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="8"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="8"/>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C117" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98EE2E-0D58-4BC4-B20B-7755D2E13518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3583C3A-4D3D-436F-BB92-24D4B6510DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="5832" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>위이잉- 위이잉-</t>
   </si>
   <si>
     <t>뭐야, 이건…? 오발송인가?</t>
@@ -326,15 +323,366 @@
 사람들은 저마다 자기 할 말만 늘어놓았습니다. 그중에는 가족을 찾는 사람들도 적지 않았어요. 그러고 보니 당신의 부모님도 오전부터 외출을 나갔습니다. 당신의 부모님은 이 상황을 알고 있는 걸까요?</t>
   </si>
   <si>
-    <t>당신은 사람들을 따라 대피소로 이동하면서 어머니에게 전화를 걸었습니다.
- - 여보세요? 너 지금 어디니...! 괜찮은 거지…?
-짧은 연결음 끝에 들려오는 어머니의 목소리. 순간 당신의 입에서 안도의 한숨이 새어 나옵니다.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 다행이다… 엄마, 아빠도 괜찮아…! 대피소로 피하고 있-
  - 쿠르릉-!
  - 여보…!
 전화 너머에서 굉음이 들려오더니 전화가 뚝- 끊어졌습니다. 이게 대체 어떻게 된 일일까요? 부모님은… 무사한 거겠죠?</t>
+  </si>
+  <si>
+    <t>당신은 정신 없이 도망치는 사람들과 함께 길을 달렸습니다.
+콰광-
+ "대, 대피소로…! 얼른…!!"
+ "조금만 가면 대피소야…!"
+쿵- 쿠궁-
+대피소는 정말로 안전한 게 맞을까요? 밀려오는 불안을 애써 무시하며, 당신은 대피소를 향해 갔습니다.</t>
+  </si>
+  <si>
+    <t>대피소가 멀지 않은 곳에 있어서, 당신을 포함한 많은 사람들이 곧 대피소에 도착했습니다. 그런데 대피소는 이미 사람들로 가득해 보입니다.
+들어가려면 들어갈 수는 있지만… 저 많은 사람들 틈에 있고 싶지 않군요. 게다가 대피소라고 해도 그저 커다란 강당일 뿐… 괴물에 대응할 만한 게 있어 보이지도 않습니다.</t>
+  </si>
+  <si>
+    <t>당신은 아까부터 계속 손에 들고 있던 휴대폰을 세게 움켜쥐었습니다. 문득, 갑자기 끊어졌던 어머니의 전화가 떠오르네요.</t>
+  </si>
+  <si>
+    <t>괴물을 상대할 자신은 없지만, 이곳에서 무의미하게 시간을 보내는 것보다는 부모님을 만나러 가는 게 낫지 않을까요? 불길한 생각을 하고 싶지는 않지만... 어쩌면 영영 부모님을 못 보게 될지도 모르고요.
+당신은 부모님을 볼 수 있는 가능성이 조금이라도 있는 쪽을 택하고 싶었습니다. 설사 그게 위험에 빠지는 길이라 할지라도요.</t>
+  </si>
+  <si>
+    <t>당신은 미련 없이 몸을 돌렸습니다. 혹시 괴물들이 튀어 나올 수도 있으니까 조심조심 움직였어요.
+콰앙-
+그런데 어느 순간, 뒤에서 시끄러운 소리가 들려옵니다. 뒤를 돌아보자 대피소로 몰려든 사람들과… 그들을 쫓아온 괴물들이 보이는군요.
+쿵-
+괴물의 공격을 받은 대피소 건물 벽이 부서집니다. 사람들의 비명이 당신이 있는 곳까지 들려왔습니다. 짙은 공포가 느껴지는 비명 소리들. 저 대피소에서 무슨 일이 벌어졌을지… 차마 생각할 엄두도 나지 않네요.
+최대한 많은 사람들이 무사하기를 빌며, 당신은 빠르게 대피소에서 멀어졌습니다.</t>
+  </si>
+  <si>
+    <t>당신은 사람이 적은 샛길로 빠졌습니다. 서로 밀치며 도망치기 바쁜 사람들 틈에 섞여 있는 건 아무리 생각해도 도움이 될 것 같지 않았어요. 어차피 대피소로 가는 길은 하나가 아니니까, 차분하게 주변을 살피면서 가는 것도 나쁘지 않을 거예요.</t>
+  </si>
+  <si>
+    <t>잠시 후, 당신은 대피소 근처에 도착했습니다. 하지만 당신은 더 이상 앞으로 나아가지 못하고 멈춰 있었어요. 왜냐하면…
+콰광-
+ "꺄악…!"
+ "안으로 들어가게 해 줘, 제발…!!"
+ "누, 누가 좀… 으아아악!"
+당신보다 먼저 대피소에 도착한 사람들을 쫓아온 듯 보이는 괴물들이, 대피소를 공격하고 있었기 때문이죠.</t>
+  </si>
+  <si>
+    <t>대피소도 위험한 건 마찬가지라면, 부모님을 만나러 가는 게 낫지 않을까요? 불길한 생각을 하고 싶지는 않지만... 어쩌면 영영 부모님을 못 보게 될지도 모르고요.
+결심을 마친 당신은 미련 없이 돌아섰습니다. 대피소가 있는 뒤쪽에서 들려오던 사람들의 비명 소리가 조금씩 옅어집니다.</t>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 테스트용 테스트 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001, 1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지이잉- 지이잉-</t>
+  </si>
+  <si>
+    <t>당신은 본능적으로 몸을 움직였습니다. 다행히 빛의 고리가 점점 멀어지면서 작게 보이네요.</t>
+  </si>
+  <si>
+    <t>아냐… 위험할 수도 있으니까 무시하자.</t>
+  </si>
+  <si>
+    <t>그냥 가면 찜찜할 것 같은데… 확인이라도 해 보자.</t>
+  </si>
+  <si>
+    <t>소리가 나는 곳으로 가 보니 작은 강아지가 축 늘어진 채 앉아 있습니다. 주인을 잃어버리기라도 한 걸까요? 당신을 올려다보는 눈망울이 무척이나 애처로워 보입니다.
+당신이 저도 모르게 손을 내밀자 강아지가 바로 달려오네요. 당신의 손에 뺨을 비비는 모습이 너무나 귀엽고 사랑스럽습니다.</t>
+  </si>
+  <si>
+    <t>나랑 같이 갈래?</t>
+  </si>
+  <si>
+    <t>멍-
+당신의 말을 알아듣기라도 한 것처럼 강아지가 멍멍 짖습니다. 당신은 결국 강아지를 품에 안았어요.</t>
+  </si>
+  <si>
+    <t>도망치자…!</t>
+  </si>
+  <si>
+    <t>싸우자…!</t>
+  </si>
+  <si>
+    <t>당신은 슬라임에게서 겨우 도망쳤습니다.</t>
+  </si>
+  <si>
+    <t>당신은 슬라임을 물리쳤습니다!</t>
+  </si>
+  <si>
+    <t>목 마른데 물이나 마시자.</t>
+  </si>
+  <si>
+    <t>어? 저기 콜라가 있잖아? 콜라 하나만 가져갈까…?</t>
+  </si>
+  <si>
+    <t>주인 없는 곳에서 함부로 움직이면 안 되지.</t>
+  </si>
+  <si>
+    <t>당신은 콜라 한 캔을 챙긴 뒤, 다시 밖으로 나갔습니다.</t>
+  </si>
+  <si>
+    <t>당신은 잠시 숨만 돌린 뒤, 다시 밖으로 나갔습니다.</t>
+  </si>
+  <si>
+    <t>먹을 게 어디 있어… 좀만 더 참자.</t>
+  </si>
+  <si>
+    <t>내가 가지고 있는 것 중에 먹을 만한 게…</t>
+  </si>
+  <si>
+    <t>당신은 굶기로 결정했습니다.</t>
+  </si>
+  <si>
+    <t>짐을 뒤지자 먹을 만한 게 보이네요. 당신은 바로 그것을 입에 넣었습니다. 배고픈 게 가시니 기운이 나는군요.</t>
+  </si>
+  <si>
+    <t>왈왈-
+어디선가 갑자기 개 짖는 소리가 들려옵니다. 누군가 난리 통에 개를 잃어버리기라도 한 걸까요? 안타까움을 느끼며 고개를 돌리는데, 어라…? 뭔가 이상합니다.
+으르르-
+당신을 향해 으르렁거리는 개의 눈이 피처럼 붉게 물들어 있습니다. 거기다 입에서는 침을 질질 흘리고, 이빨은 비정상적으로 크기까지…! 어쩐지 예감이 안 좋은데요…?</t>
+  </si>
+  <si>
+    <t>안 되겠다, 도망치자…!</t>
+  </si>
+  <si>
+    <t>몰라, 까짓 거 싸워 보자…!</t>
+  </si>
+  <si>
+    <t>당신은 미친 개한테서 겨우 도망쳤습니다.</t>
+  </si>
+  <si>
+    <t>당신은 용감하게 싸웠지만 미친 개는 강했습니다. 도저히 이길 수 있을 것 같지가 않아서, 겨우 미친 개를 따돌리고 나왔어요. 차라리 처음부터 도망쳤더라면 부상은 입지 않았을 텐데… 스스로를 너무 믿은 모양입니다.</t>
+  </si>
+  <si>
+    <t>당신은 미친 개를 물리쳤습니다!</t>
+  </si>
+  <si>
+    <t>…굴러온 거니까 내가 가져도 되겠지?</t>
+  </si>
+  <si>
+    <t>아냐, 누군 건지도 모르는데 함부로 주우면 안 되지…!</t>
+  </si>
+  <si>
+    <t>대피소를 찾아보자.</t>
+  </si>
+  <si>
+    <t>나도 시간이 없는데…</t>
+  </si>
+  <si>
+    <t>우산 써야겠다.</t>
+  </si>
+  <si>
+    <t>조금만 더 기다려 보자… 금방 그칠 수도 있잖아.</t>
+  </si>
+  <si>
+    <t>으아아, 도망쳐…!</t>
+  </si>
+  <si>
+    <t>내가 비둘기한테 질 것 같아?!</t>
+  </si>
+  <si>
+    <t>당신은 이상한 비둘기한테서 겨우 도망쳤습니다.</t>
+  </si>
+  <si>
+    <t>당신은 이상한 비둘기를 물리쳤습니다!</t>
+  </si>
+  <si>
+    <t>배고픈데 몇 개만 먹자…!</t>
+  </si>
+  <si>
+    <t>재료도 남아 있네? 직접 만들어 볼까?</t>
+  </si>
+  <si>
+    <t>당신은 타코야키 몇 알을 먹고 다시 길을 나섰습니다.</t>
+  </si>
+  <si>
+    <t>주변을 경계하며 앞으로 나아가는데, 어디선가 끙끙 앓는 듯한 소리가 들려옵니다.
+끼잉-
+누가 다치기라도 한 걸까요? 왠지 신경이 쓰입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끙끙 앓는 듯한 소리가 조금 신경 쓰였지만, 당신은 애써 외면하고 가던 길을 갔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰박-
+길을 걷던 당신의 발에 물컹한 무언가가 밟힙니다. 발을 떼자 웬 점액 같은 게 끈적하게 묻어나네요. 이게 대체 뭘까요?
+케엑-
+당신이 궁금증을 느끼는 찰나, 불길한 소리와 함께 낯선 무언가가 다가옵니다. 둥근 외형에 미끄덩해 보이는 표면, 그리고 그 한 가운데에 자리한… 눈과 입 같은 구멍. 그래요, 당신을 향해 다가오는 저건, 마치 '슬라임' 같아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 용감하게 싸웠지만 슬라임은 강했습니다. 도저히 이길 수 있을 것 같지가 않아서, 겨우 슬라임을 따돌리고 나왔어요. 차라리 처음부터 도망쳤더라면 부상은 입지 않았을 텐데… 스스로를 너무 믿은 모양입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 걷는 당신의 눈에 텅 빈 채 열려 있는 가게가 보입니다. 슬쩍 들어가 보니 음식점인 것 같은데… 아무래도 사장님은 가게 문을 잠그는 것도 잊고 대피를 한 모양입니다.
+한참을 걸었더니 지치는군요. 여기서 좀 쉬어 가는 것도 괜찮을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 잠시 물을 마시며 숨을 돌린 뒤, 다시 밖으로 나갔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬르륵-
+일어나서 지금까지 제대로 챙겨 먹은 게 없다 보니 배가 몹시 고파 옵니다. 아무래도 뭐든 좀 먹어야 할 것 같은데… 먹을 만한 게 없을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툭-
+옆에서 무언가가 데구르르 굴러옵니다. 동전같이 둥금 모양에 노랗게 반짝이는 이 모습은… 마치 금화 같아요! 진짜 금으로 만들어진 걸까요? 문득 궁금해진 당신은 무의식적으로 그것을 주워 들었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 금화로 추정되는 그것을 살짝 깨물었습니다. 그런데… 잇자국이 남네요…? 설마 이거… 정말 금으로 만들어진 걸까요?
+당신은 의문을 품에 안은 채, 금화를 챙겼습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 금화로 추정되는 그것을 다시 내려놓았습니다. 혹시라도 주인이 있는 거라면, 훔친 게 되니까요! 아무리 세상이 이상해졌다지만 범죄를 저지를 순 없죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "저, 저기요…!"
+뒤에서 누군가가 부르는 소리가 들려옵니다. 돌아보니 어린 소녀가 겁에 질린 얼굴로 당신을 바라보고 있네요.
+ "혹시… 이 근처에 대피소가 어딘지 아세요…? 핸드폰을 잃어버려서… 흑."
+소녀가 작게 훌쩍입니다. 아마도 대피소를 찾지 못해서 불안한 모양이에요. 이 근처 지리는 잘 모르지만 휴대폰 지도를 보면 대피소를 찾을 수 있을지도 모르겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 휴대폰으로 지도를 확인했습니다. 다행히 대피소 몇 개가 금방 나오는군요.
+소녀에게 지도를 보여 주자, 소녀의 얼굴이 밝아졌습니다.
+ "이쪽으로 이렇게 가면 되는 거겠죠…?"
+소녀는 지도를 몇 번이고 보면서 꼼꼼하게 길을 익혔습니다.
+ "정말 감사해요! 별건 아니지만… 이거라도 받으세요."
+환하게 웃은 소녀가 당신에게 과자를 내밀었습니다.
+골목길로 들어가는 소녀를 배웅해 준 당신은 다시 발걸음을 뗐습니다. 어쩐지 마음이 따듯해지는 것만 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 곤란한 얼굴로 고개를 젓자, 소녀가 입술을 깨뭅니다.
+ "죄송해요, 괜히 붙잡아서…"
+울음을 참는 듯한 목소리로 말한 소녀는 곧 고개를 꾸벅 숙인 뒤 골목길로 들어가 버렸습니다.
+다시 발걸음을 떼는 당신의 머릿속에, 어째서인지 울먹이던 소녀의 얼굴이 자꾸만 떠올랐습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투둑- 투두둑-
+갑자기 비가 내리기 시작합니다. 가는 날이 장날이라더니 하필이면 비가 내리는군요. 당신은 일단 가까운 건물로 들어갔습니다.
+과연 비가 언제쯤 그칠까요? 그냥 소나기면 좋겠지만 아니라면 어떡하죠? 뭔가 비를 막을 만한 게 있다면 계속 길을 갈 수 있을 텐데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 가지고 있던 우산을 꺼내 펼쳤습니다. 비 걱정을 한결 덜어서 다행이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 비가 그치기만을 하염 없이 기다렸습니다. 비는 생각보다 오래 내렸어요. 시간이 꽤 지체되어서 차라리 비를 맞는 게 나았을까, 잠시 후회가 됐습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구구-
+앞에서 새소리가 들려옵니다. 회색빛이 도는 통통한 몸체… 비둘기인 것 같아요. 그런데 비둘기 크기가 평소 보던 것보다 조금 큽니다. 거기다 비둘기 눈이… 붉은색이에요!
+구구구구-
+시끄럽게 우는 비둘기가 당신을 향해 날아옵니다…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 용감하게 싸웠지만 이상한 비둘기는 강했습니다. 도저히 이길 수 있을 것 같지가 않아서, 겨우 이상한 비둘기를 따돌리고 나왔어요. 차라리 처음부터 도망쳤더라면 부상은 입지 않았을 텐데… 스스로를 너무 믿은 모양입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킁킁-
+당신의 코에 맛있는 냄새가 포착됐습니다. 냄새가 이끄는 대로 걷다 보니 타코야키 노점 앞이네요. 사람은 아무도 없이, 노점만 덩그러니 놓여 있습니다. 잘 익은 타코야키도 몇 개 있고요. 아마 사장님이 급하게 대피하느라 노점도 정리하지 못한 모양이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 남은 재료로 타코야키를 직접 만들었습니다. 만들어서 먹으니 따끈따끈하고 훨씬 더 맛있는 것 같네요! 어쩐지 요리 실력도 조금 늘어난 기분이고 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 길을 걷고 있는데 휴대폰이 울립니다. 이 시끄러운 진동음은 재난 문자가 분명해요. 또 무슨 불길한 소식을 전하려고 이렇게 울리는 걸까요?
+ - [긴급재난문자] 이 시간부로 괴물체를 배출하는 통로를 '게이트'라고 명명. 수상한 빛의 고리 발견 시 즉시 대피 바랍니다.
+불안한 마음으로 휴대폰을 확인하자, 다행인지 불행인지 그저 정보만을 담고 있는 문자가 보입니다. 아까 아파트 단지에 나타났던 빛의 고리를 앞으로는 '게이트'라고 부르면 되는 모양이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이트? 꼭 무슨 판타지 소설 같네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상황이 정말로 그저 소설이었다면 참 좋았을 텐데. 새어 나오려는 한숨을 막으며, 당신은 휴대폰을 집어 넣었습니다. 씁쓸해하고만 있기엔, 아직 갈 길이 머니까요. 어서 부지런히 발을 놀려야 했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201, 202, 203, 204, 205, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>110, 202, 203, 204, 205, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>2022, 2023</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>110, 201, 203, 204, 205, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 204, 205, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 205, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>2052, 2053</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 206, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 205, 207, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 205, 206, 208, 209, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 205, 206, 207, 209, 210</t>
+  </si>
+  <si>
+    <t>2092, 2093</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 205, 206, 207, 208, 210</t>
+  </si>
+  <si>
+    <t>110, 201, 202, 203, 204, 205, 206, 207, 208, 209</t>
+  </si>
+  <si>
+    <t>당신은 대피소라고 해서 안전한 곳이 아님을 깨닫고, 괴물들을 피해 벽 뒤로 몸을 숨겼습니다. 공포 때문일까요?
+휴대폰을 쥔 손에 힘이 들어갑니다. 문득, 아까 전 갑작스럽게 끊어졌던 어머니의 전화가 떠오르네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 사람들을 따라 대피소로 이동하면서 어머니에게 전화를 걸었습니다.
+ - 여보세요? 너 지금 어디니…! 괜찮은 거지…?
+짧은 연결음 끝에 들려오는 어머니의 목소리. 순간 당신의 입에서 안도의 한숨이 새어 나옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다시 전화를 걸어 봤지만 당신의 어머니는 전화를 받지 않았습니다.
@@ -343,66 +691,7 @@
  "으아악…! 저, 저게 뭐야…?!!"
  "도, 도망쳐…!!"
 다시 한번 부모님에게 전화를 걸려는데, 사람들이 비명을 지르며 달아나기 시작합니다. 전화에 정신이 팔려 상황을 이해하지 못한 당신은 멍하니 앞을 바라보았습니다.
-얼마 전까지 당신이 있던 곳, 멀지 않은 거리에 있는 아파트 단지 쪽에서 불길하게 소용돌이 치는 빛무리가 보입니다. 그리고... 그 너머에서 나오는 괴물들까지도요.</t>
-  </si>
-  <si>
-    <t>당신은 본능적으로 몸을 움직였습니다. 다행히 빛무리가 점점 멀어지면서 작게 보이네요.</t>
-  </si>
-  <si>
-    <t>당신은 정신 없이 도망치는 사람들과 함께 길을 달렸습니다.
-콰광-
- "대, 대피소로…! 얼른…!!"
- "조금만 가면 대피소야…!"
-쿵- 쿠궁-
-대피소는 정말로 안전한 게 맞을까요? 밀려오는 불안을 애써 무시하며, 당신은 대피소를 향해 갔습니다.</t>
-  </si>
-  <si>
-    <t>대피소가 멀지 않은 곳에 있어서, 당신을 포함한 많은 사람들이 곧 대피소에 도착했습니다. 그런데 대피소는 이미 사람들로 가득해 보입니다.
-들어가려면 들어갈 수는 있지만… 저 많은 사람들 틈에 있고 싶지 않군요. 게다가 대피소라고 해도 그저 커다란 강당일 뿐… 괴물에 대응할 만한 게 있어 보이지도 않습니다.</t>
-  </si>
-  <si>
-    <t>당신은 아까부터 계속 손에 들고 있던 휴대폰을 세게 움켜쥐었습니다. 문득, 갑자기 끊어졌던 어머니의 전화가 떠오르네요.</t>
-  </si>
-  <si>
-    <t>괴물을 상대할 자신은 없지만, 이곳에서 무의미하게 시간을 보내는 것보다는 부모님을 만나러 가는 게 낫지 않을까요? 불길한 생각을 하고 싶지는 않지만... 어쩌면 영영 부모님을 못 보게 될지도 모르고요.
-당신은 부모님을 볼 수 있는 가능성이 조금이라도 있는 쪽을 택하고 싶었습니다. 설사 그게 위험에 빠지는 길이라 할지라도요.</t>
-  </si>
-  <si>
-    <t>당신은 미련 없이 몸을 돌렸습니다. 혹시 괴물들이 튀어 나올 수도 있으니까 조심조심 움직였어요.
-콰앙-
-그런데 어느 순간, 뒤에서 시끄러운 소리가 들려옵니다. 뒤를 돌아보자 대피소로 몰려든 사람들과… 그들을 쫓아온 괴물들이 보이는군요.
-쿵-
-괴물의 공격을 받은 대피소 건물 벽이 부서집니다. 사람들의 비명이 당신이 있는 곳까지 들려왔습니다. 짙은 공포가 느껴지는 비명 소리들. 저 대피소에서 무슨 일이 벌어졌을지… 차마 생각할 엄두도 나지 않네요.
-최대한 많은 사람들이 무사하기를 빌며, 당신은 빠르게 대피소에서 멀어졌습니다.</t>
-  </si>
-  <si>
-    <t>당신은 사람이 적은 샛길로 빠졌습니다. 서로 밀치며 도망치기 바쁜 사람들 틈에 섞여 있는 건 아무리 생각해도 도움이 될 것 같지 않았어요. 어차피 대피소로 가는 길은 하나가 아니니까, 차분하게 주변을 살피면서 가는 것도 나쁘지 않을 거예요.</t>
-  </si>
-  <si>
-    <t>잠시 후, 당신은 대피소 근처에 도착했습니다. 하지만 당신은 더 이상 앞으로 나아가지 못하고 멈춰 있었어요. 왜냐하면…
-콰광-
- "꺄악…!"
- "안으로 들어가게 해 줘, 제발…!!"
- "누, 누가 좀… 으아아악!"
-당신보다 먼저 대피소에 도착한 사람들을 쫓아온 듯 보이는 괴물들이, 대피소를 공격하고 있었기 때문이죠.</t>
-  </si>
-  <si>
-    <t>당신은 대피소라고 해서 안전한 곳이 아님을 깨닫고, 괴물들을 피해 벽 뒤로 몸을 숨겼다. 공포 때문일까요? 휴대폰을 쥔 손에 힘이 들어갑니다. 문득, 아까 전 갑작스럽게 끊어졌던 어머니의 전화가 떠오르네요.</t>
-  </si>
-  <si>
-    <t>대피소도 위험한 건 마찬가지라면, 부모님을 만나러 가는 게 낫지 않을까요? 불길한 생각을 하고 싶지는 않지만... 어쩌면 영영 부모님을 못 보게 될지도 모르고요.
-결심을 마친 당신은 미련 없이 돌아섰습니다. 대피소가 있는 뒤쪽에서 들려오던 사람들의 비명 소리가 조금씩 옅어집니다.</t>
-  </si>
-  <si>
-    <t>battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 테스트용 테스트 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001, 1011</t>
+얼마 전까지 당신이 있던 곳, 멀지 않은 거리에 있는 아파트 단지 쪽에서 불길하게 소용돌이 치는 빛의 고리가 보입니다. 그리고… 그 너머에서 나오는 괴물들까지도요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,22 +1114,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
     <col min="4" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="3"/>
+    <col min="12" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -875,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -910,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -945,7 +1234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -953,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -964,7 +1253,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -972,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -983,7 +1272,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -1002,7 +1291,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -1010,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1021,7 +1310,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -1029,22 +1318,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -1052,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1065,28 +1354,28 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="168" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1011</v>
       </c>
@@ -1094,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1105,7 +1394,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
@@ -1126,7 +1415,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="198" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="192" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
@@ -1134,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1145,7 +1434,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1166,7 +1455,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1174,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1185,7 +1474,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
@@ -1204,7 +1493,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -1212,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1223,7 +1512,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1013</v>
       </c>
@@ -1244,7 +1533,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1014</v>
       </c>
@@ -1252,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1263,7 +1552,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1014</v>
       </c>
@@ -1284,7 +1573,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>102</v>
       </c>
@@ -1292,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>102</v>
       </c>
@@ -1306,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>103</v>
       </c>
@@ -1320,22 +1609,22 @@
         <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1031</v>
       </c>
@@ -1349,7 +1638,7 @@
         <v>10311</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1032</v>
       </c>
@@ -1363,7 +1652,7 @@
         <v>10321</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1033</v>
       </c>
@@ -1377,7 +1666,7 @@
         <v>10331</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1034</v>
       </c>
@@ -1391,7 +1680,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1035</v>
       </c>
@@ -1405,7 +1694,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10311</v>
       </c>
@@ -1413,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10311</v>
       </c>
@@ -1424,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="8">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10321</v>
       </c>
@@ -1438,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10321</v>
       </c>
@@ -1449,13 +1738,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10331</v>
       </c>
@@ -1463,10 +1752,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10331</v>
       </c>
@@ -1474,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>10341</v>
       </c>
@@ -1488,10 +1777,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>10341</v>
       </c>
@@ -1499,13 +1788,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10351</v>
       </c>
@@ -1513,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10351</v>
       </c>
@@ -1524,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>104</v>
       </c>
@@ -1538,13 +1827,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="K39" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>104</v>
       </c>
@@ -1552,10 +1841,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>104</v>
       </c>
@@ -1563,10 +1852,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>104</v>
       </c>
@@ -1574,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>105</v>
       </c>
@@ -1588,13 +1877,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K43" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>105</v>
       </c>
@@ -1602,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="66" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>106</v>
       </c>
@@ -1616,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="K45" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>106</v>
       </c>
@@ -1630,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="66" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>107</v>
       </c>
@@ -1644,13 +1933,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K47" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>107</v>
       </c>
@@ -1658,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H48" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="158.4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>108</v>
       </c>
@@ -1672,10 +1961,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>108</v>
       </c>
@@ -1683,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>109</v>
       </c>
@@ -1697,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K51" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>109</v>
       </c>
@@ -1711,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="3">
         <v>1091</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>109</v>
       </c>
@@ -1725,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="3">
         <v>1096</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1091</v>
       </c>
@@ -1739,13 +2028,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K54" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1091</v>
       </c>
@@ -1759,7 +2048,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="79.2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>1092</v>
       </c>
@@ -1767,10 +2056,10 @@
         <v>7</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>1092</v>
       </c>
@@ -1778,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H57" s="3">
         <v>1093</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1093</v>
       </c>
@@ -1792,13 +2081,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K58" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1093</v>
       </c>
@@ -1806,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H59" s="3">
         <v>1094</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>1094</v>
       </c>
@@ -1820,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1094</v>
       </c>
@@ -1831,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="3">
         <v>1095</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="171.6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1095</v>
       </c>
@@ -1845,13 +2134,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K62" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>1095</v>
       </c>
@@ -1861,8 +2150,14 @@
       <c r="C63" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="66" x14ac:dyDescent="0.4">
+      <c r="H63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>1096</v>
       </c>
@@ -1870,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K64" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>1096</v>
       </c>
@@ -1890,7 +2185,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="105.6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="96" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>1097</v>
       </c>
@@ -1898,10 +2193,10 @@
         <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1097</v>
       </c>
@@ -1909,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="3">
         <v>1098</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>1098</v>
       </c>
@@ -1923,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>1098</v>
       </c>
@@ -1934,10 +2229,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="79.2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1099</v>
       </c>
@@ -1945,13 +2243,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K70" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>1099</v>
       </c>
@@ -1961,31 +2259,1207 @@
       <c r="C71" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C80" s="8"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C105" s="8"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C107" s="8"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C110" s="8"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C113" s="8"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C115" s="8"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C117" s="8"/>
+      <c r="H71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>201</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K72" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>201</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>201</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>202</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K81" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>202</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>202</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>203</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>203</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>203</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H92" s="3">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>203</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>2033</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>2033</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>204</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K100" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>204</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>204</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>2041</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>2041</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>2042</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>2042</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>205</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K107" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>205</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H108" s="3">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>205</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>2051</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>2051</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>2052</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>2052</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>2053</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>2053</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>206</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K116" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>206</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117" s="3">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>206</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118" s="3">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>2061</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>2061</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>2062</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>2062</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>207</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K123" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>207</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H124" s="3">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>207</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H125" s="3">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="108" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>2071</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>2071</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>2072</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>2072</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>208</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K130" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>208</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H131" s="3">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>208</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H132" s="3">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>2081</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>2081</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>2082</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>2082</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>209</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K137" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>209</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H138" s="3">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>209</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>2091</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>2091</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>2092</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>2092</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>2093</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>2093</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>210</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K146" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>210</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>210</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>2101</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>2101</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>110</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K153" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="120" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>110</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>110</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H155" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3583C3A-4D3D-436F-BB92-24D4B6510DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C14529-39E2-4E00-AA81-DE135FAE4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -692,6 +692,237 @@
  "도, 도망쳐…!!"
 다시 한번 부모님에게 전화를 걸려는데, 사람들이 비명을 지르며 달아나기 시작합니다. 전화에 정신이 팔려 상황을 이해하지 못한 당신은 멍하니 앞을 바라보았습니다.
 얼마 전까지 당신이 있던 곳, 멀지 않은 거리에 있는 아파트 단지 쪽에서 불길하게 소용돌이 치는 빛의 고리가 보입니다. 그리고… 그 너머에서 나오는 괴물들까지도요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 망치로 자물쇠를 내려쳤습니다.
+깡-
+자물쇠가 바로 휘어졌지만 부서지진 않았어요.
+깡, 깡-!
+몇 번 더 내려치자 그제야 자물쇠가 부서졌습니다. 휴우, 힘을 쓰니 조금 지치지만 혹시라도 누가 오면 안 되니까 얼른 넘어가야겠어요.</t>
+  </si>
+  <si>
+    <t>당신은 골프채로 자물쇠를 내려쳤습니다.
+깡-
+그런데 너무 세게 내려쳐서일까요? 자물쇠가 아니라 걸고리가 아예 뜯어져 버렸어요…! 뭐, 어쨌든 문이 열렸으니까 별로 상관은 없지만요. 모로 가도 서울만 가면 된다고 하잖아요?</t>
+  </si>
+  <si>
+    <t>자초지종을 물어보자.</t>
+  </si>
+  <si>
+    <t>내부에서 무슨 큰일이라도 일어난 건가요…?</t>
+  </si>
+  <si>
+    <t>얼른 쇼핑몰로 가 봐야겠어.</t>
+  </si>
+  <si>
+    <t>그래도 가야 해요.</t>
+  </si>
+  <si>
+    <t>금방 갈게요. 제발 무사히 있어 주세요.</t>
+  </si>
+  <si>
+    <t>아직 초입이니까… 더 들어가 보자.</t>
+  </si>
+  <si>
+    <t>제가 몬스터를 잡을 수 있어요.</t>
+  </si>
+  <si>
+    <t>왜 그렇게 보세요?</t>
+  </si>
+  <si>
+    <t>전 그룹에 들어갈 생각이 없어요.</t>
+  </si>
+  <si>
+    <t>그럼 잠깐만 둘러볼게요.</t>
+  </si>
+  <si>
+    <t>부모님이 안 보여요.</t>
+  </si>
+  <si>
+    <t>짐작 가는 거라도 있으세요?</t>
+  </si>
+  <si>
+    <t>저희 부모님, 아시는 거죠?</t>
+  </si>
+  <si>
+    <t>알려 주셔서 감사합니다. 전 다시 나가봐야겠어요.</t>
+  </si>
+  <si>
+    <t>엄마, 아빠?</t>
+  </si>
+  <si>
+    <t>무사하셔서 다행이에요…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "정지! 멈추십시오! 더는 지나갈 수 없습니다!"
+한 무리의 군대가 길을 가로막고, 당신에게 멈추라는 신호를 보냅니다. 길에 설치한 바리케이드 하며 군인들의 단단한 무장까지, 뭔가 심상치 않아 보이는군요. 하지만 당신은 이 길을 지나가야만 합니다. 당신의 부모님이 아직 무사한 게 맞다면, 이 길 너머 저 멀리 보이는 건물 안에 있을 테니까요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족들을 보러 가야 해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 길을 막고 있는 군인에게 간단하게 사정을 말했습니다.
+군인이 곤란한 기색을 비치는군요. 당신을 보는 시선에 고민이 어려 보입니다. 혹시 당신을 들여보내 주려는 걸까요?
+ "…사정은 알겠지만 그래도 안 됩니다. 통제 구역에 남아 있는 민간인들은 군에서 구출할 테니 저희를 믿고 이만 돌아가십시오."
+당신의 기대를 무너뜨리며, 군인이 한 발 앞으로 나왔습니다. 반듯하게 서 있는 모습에서 결코 당신을 들여보내지 않겠다는 의지가 느껴지는 것만 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발… 어떻게 안 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "안 됩니다. 군의 지시를 따라 주십시오. 이 이상 계속해서 무리한 부탁을 하신다면 강제로 끌어낼 수도 있습니다."
+군인이 인상을 살짝 찌푸리며 당신을 쳐다보네요. 아무래도 더 애원해 봤자 통하지 않을 것 같습니다. 아니, 더 떼를 썼다간 통하지 않는 걸 넘어서 역효과가 날지도 모르겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 되겠어, 일단은 물러나야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 어쩔 수 없이 발길을 돌렸습니다. 군인이 안심하는 얼굴로 당신을 바라보네요.
+ "저쪽으로 가시면 대피소가 있습니다. 그곳에 가 계시면 안전할 겁니다."
+당신은 감사하다고 인사한 뒤, 군인이 가리킨 쪽으로 천천히 걸음을 옮겼습니다. 아무래도 정면 돌파는 힘들 것 같고… 다른 방법을 찾아봐야겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 군대의 경계를 피해 이곳저곳을 꽤 한참 맴돌았습니다. 군대의 저지선이 생각보다 견고해서 안쪽으로 들어갈 방법이 요원해 보였지만… 간절히 바라면 온 우주가 도와준다죠? 드디어 방법을 찾은 것 같네요! 저 앞쪽에 아무도 없는 건물이 보이거든요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시…! 빈틈이 있을 줄 알았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 얼른 그 건물로 다가갔습니다. 음, 그런데… 가까이 가서 보니 왜 이쪽엔 군대가 없는지 알 것 같아요. 건물과 건물 사이에 사람이 다닐 수 있는 정도의 틈이 있는 건 좋은데 문으로 막아 뒀네요. 그나마 다행이라면 문이 튼튼해 보이지는 않는다는 걸까요? 자물쇠로 잠가 놨는데 꽤 허름해 보입니다. 잘만 하면 부술 수 있을 것 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "오, 오지 마…!"
+멀지 않은 곳에서 사람 목소리가 들립니다. 그것도 굉장히 겁에 질린 목소리가요.
+소리가 난 쪽으로 고개를 돌리니… 이런, 젊은 여자가 개인지 늑대인지 구분이 안 갈 만큼 거대한 개와 대치하고 있네요. 개가 금방이라도 여자를 향해 달려들 것 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "헉… 하아… 감사해요, 진짜 죽는 줄 알았는데…"
+여자가 눈물을 글썽이며 감사를 표합니다. 안도하는 얼굴을 보니 모처럼 좋은 일을 한 것 같아 뿌듯해지네요. 그런데 이 사람은 어쩌다 이런 곳에 혼자 있게 된 걸까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 돼… 도와주자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "아, 그게…"
+당신의 물음에 여자가 난처한 표정을 짓습니다. 여자의 얼굴에 고민하는 기색이 역력합니다.
+ "원래는 저기 쇼핑몰에 있었는데요, 저기 분위기가 영 안 좋아서요. 저 안에 있어 봤자 좋을 게 없겠다 싶어서 나온 건데… 이렇게 될 줄은 몰랐어요. 솔직히 처음에 재난 문자 받았을 땐 이게 뭔 소린가 싶기도 했고. 이런 괴물들을 만날 줄 알았으면 안 나오는 건데. 휴…"
+여자가 한숨을 푹 내쉽니다. 그런데 방금 여자가 쇼핑몰이라고 했던가요? 심지어 쇼핑몰 내부 분위기가 안 좋다고 했죠? 당신이 아는 게 맞다면, 당신의 부모님도 그곳에 있을 가능성이 큰데 말이에요…! 부모님이 괜찮으실지 걱정되는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "아뇨, 그건 아니고… 싸우는 사람들이 많았거든요. 저는 싸움에 휘말리기 싫어서 나온 거예요. 지금 생각하면 싸움에 휘말리더라도 그냥 안에 있는 게 나았을 것 같지만."
+다행히 쇼핑몰 안까지 괴물들이 출현한 건 아닌가 봐요. 불행 중 다행이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "어, 저쪽으로 가려고요? 여기서 더 가면 위험할 텐데…? 저도 겨우 나온 거예요. 사실 저 안에… 괴물한테 당한 사람들도 많아요, 엄청."
+여자가 질색하는 표정으로 고개를 저으며 염려를 표합니다. 하지만 당신은 포기할 생각이 없었어요. 여기까지 어떻게 왔는데 포기하겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "저한테 말릴 자격이 있는 것도 아니니까 붙잡지는 않겠는데… 휴우."
+여자가 심란한 얼굴로 말을 잇다가 한숨을 푹 내쉽니다. 무슨 말을 해야 할지 모르겠다는 기색이네요.
+ "전 먼저 가 볼게요. 여기 계속 있다가 또 괴물이라도 만나면 안 되니까… 아, 구해 준 건 정말 감사해요. 그쪽도 행운을 빌게요."
+고개를 살짝 숙여 숙이며 인사를 건넨 여자는 빠르게 멀어졌습니다.
+여자에게 마주 인사를 건네던 당신도 곧 몸을 돌렸어요. 그리고 문득, 커다란 쇼핑몰 건물이 꽤 가깝게 보인다는 사실을 깨달았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 드디어 쇼핑몰로 들어왔습니다. 그런데 사람이 보이지 않는군요. 안으로 들어오면 금방 사람을 만날 수 있을 줄 알았는데 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "이봐, 거기! 남의 구역에서 알짱거리지 말고 꺼져."
+쇼핑몰 최고층에 위치한 영화관 앞. 한 무리의 사람들이 당신을 위협하며 가로막습니다. 부모님이 무사하다면 이곳에 있을 가능성이 큰데… 문제는 저 사람들, 당신을 쉽게 들여보내 줄 기색이 아닙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 말하며 당신은 그동안 몬스터를 잡고 얻은 물건들을 꺼내 보였습니다.
+ "이걸 다 혼자서 잡은 거냐…?"
+당신이 고개를 끄덕이자 무리의 사람들이 서로 시선을 주고받더니 다시 당신을 쳐다봅니다.
+ "따라와라."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무리의 리더로 보이는 남자를 따라 당신은 영화관 안으로 들어섰습니다. 남자는 영화관 로비를 지나 상영관 안까지 당신을 데리고 들어갔어요.
+그런데 상영관 안에 사람들이 무척이나 많습니다. 대체 사람들이 다 어디 있나 했더니, 여기에 있었나 봐요. 어쩌면 당신의 부모님도 저 사이에…
+ "대표님, 잠시 논의 드릴 사항이…"
+당신이 모여 있는 사람들을 보며 부모님을 떠올리는 찰나, 당신을 안내하던 남자의 걸음이 멈췄습니다. 남자가 웬 중년의 남자에게 무언가 속닥거립니다. 무슨 말을 하는 건지, 대표라고 불린 중년 남자가 당신을 흘깃 쳐다보는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "아, 불쾌했다면 미안하군. 자네가 혼자서 몬스터들을 잡았다고? 아주 대단한 솜씨야."
+대표가 당신에게 다가와 당신의 어깨를 두드립니다. 친근한 듯 구는 게 왠지 수상쩍지만 당신은 일단 잠자코 있었습니다.
+ "더는 인원을 받기 힘든 상황이지만 자네를 특별히 우리 그룹에 받아 주겠네. 이 쇼핑몰에서 우리만큼 규모가 크고 안정적인 그룹은 없어."
+대표가 선심 쓴다는 투로 말하는군요. 당신은 이 그룹에 들어오려고 여길 찾아온 게 아닌데 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 대표에게 부모님을 찾으러 왔음을 밝혔습니다. 순간 대표의 얼굴이 살짝 굳는가 싶더니, 이내 다시 밝아집니다. 무슨 생각을 하길래 저렇게 화색을 띠는 걸까요?
+ "부모님을 찾으러 여기까지 오다니 대단하구만. 그래, 부모님이 영화를 보러 왔었다고? 그럼 분명 여기 계실 걸세. 영화관에 있던 사람들은 전부 여기에 모였거든. 어서 한번 둘러보게. 부모님 찾고, 우리랑 같이 여기에 머물면 되지 않겠나."
+대표는 당신이 부모님을 찾으면 여기에 계속 머물 거라고 생각하나 봅니다. 그래서 표정이 밝아졌던 거군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 넓은 상영관을 돌아다니며 사람들을 찬찬히 살폈습니다. 그런데… 어째서일까요? 아무리 살펴봐도 부모님의 얼굴이 보이지 않습니다.
+부모님이 오랜만에 둘이서만 오붓하게 영화를 보러 간다고 했으니까 별일이 없다면 여기에 계실 줄 알았는데요… 어째서 보이지 않는 걸까요?
+ "부모님 찾다 말고 왜 그렇게 서 있나?"
+대표가 의아해하며 다가옵니다. 당신이 자기 그룹에 있어 주길 바라는 대표에겐 안 됐지만, 더는 여기 있을 이유가 없을 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "뭐? 그럴 리가…"
+ "아, 대표님 혹시…"
+대표가 난색을 표하는데, 당신을 상영관까지 안내해 줬던 남자가 갑자기 끼어듭니다. 남자가 당신의 눈치를 살피며 대표에게 소곤거리는군요. 왠지 불길한 느낌이 듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "크흠… 혹시 자네 부모님 연하늘색 셔츠랑 연분홍색 원피스 입고 나가셨나?"
+대표가 대뜸 묻습니다. 늦잠 자는 바람에 부모님을 보진 못했지만, 연하늘색 셔츠와 연분홍색 원피스라면 부모님이 즐겨 입는 옷이긴 합니다.
+ "맞나 본데요, 그 사람들…"
+고개를 끄덕이는 당신을 보며 대표 옆에서 남자가 얼굴을 찡그립니다. 아무래도, 이 사람들과 부모님 사이에 무슨 일이 있었나 봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "안다기보다는… 이걸 어떻게 말해야 좋을지 모르겠군. 자네 부모님은… 우리 그룹을 나갔다네. 애를 잃어버린 젊은 부부랑 같이 나갔어. 그들을 돕겠다면서 말일세."
+대표가 주저하며 말했습니다. 드디어 부모님의 소식을 알게 된 건 다행이지만 이곳에 없다니… 대체 어떻게 하면 좋을까요?
+ "우린 나가지 말라고 말렸어. 마다하고 나간 건 자네 부모님이었네."
+ "맞아. 그리고 애 찾으면 돌아오겠다고 했는데 여태 소식 없는 거 보면…"
+대표가 남자를 노려봅니다. 부모님을 만날 기대로 가득 찼던 당신은 마음이 무겁게 가라앉는 걸 느꼈습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "부모님이 여기로 돌아올 수도 있는 거 아닌가. 괜히 나갔다가 엇갈리면 어쩌려고 그렇게 나가나."
+대표가 당신을 회유했지만 당신은 단호했습니다. 얘기를 들어보니 부모님이 나간 지 한참 된 것 같은데, 지금까지 돌아오지 않았다면 무슨 일이 생긴 게 틀림없어요. 가만히 앉아서 기다릴 수는 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "콜록콜록…!"
+주변을 경계하며 걷던 당신의 귀에 얕은 기침 소리가 들려옵니다. 이건 아무리 들어도 사람 소리가 분명해요.
+소리가 들려온 쪽으로 살며시 걸음을 옮기자, 한 무리의 사람들이 보입니다. 그런데 그 사람들 틈에 익숙한 연하늘색 셔츠와 연분홍색 원피스가 섞여 있어요. 저건 설마…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "OO아…? 네가 어떻게 여기…?"
+잔뜩 헝클어진 몰골의 부모님이 당신에게 달려옵니다. 당신을 끌어안는 부모님으로부터 온기가 전해져 옵니다. 이런 곳에서 만날 줄은 생각지 못해서일까요? 왠지 얼떨떨한 기분입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <pane ySplit="3" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3460,6 +3691,710 @@
       <c r="C157" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="H157" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>111</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K158" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>111</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="120" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>1111</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>1111</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H165" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>112</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K166" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>112</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H169" s="3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>1122</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>1122</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>113</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K175" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>113</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>1131</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>1131</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>1133</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>1133</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H186" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>114</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K187" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>114</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H188" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>115</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>115</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>1151</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>1151</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>1152</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>1152</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>1153</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>1153</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H196" s="3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>1154</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>1154</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>1155</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>1155</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>1156</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>1156</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>1157</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>1157</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>1158</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>1158</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>1159</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>1159</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H208" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>116</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K209" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>116</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>1161</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>1161</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/page.xlsx
+++ b/Assets/Resource/ExcelData/page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C14529-39E2-4E00-AA81-DE135FAE4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0127E58-AE5E-4BB5-8426-DDA8204CD8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="281">
   <si>
     <t>type</t>
   </si>
@@ -923,6 +923,283 @@
   <si>
     <t xml:space="preserve"> "OO아…? 네가 어떻게 여기…?"
 잔뜩 헝클어진 몰골의 부모님이 당신에게 달려옵니다. 당신을 끌어안는 부모님으로부터 온기가 전해져 옵니다. 이런 곳에서 만날 줄은 생각지 못해서일까요? 왠지 얼떨떨한 기분입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그건…</t>
+  </si>
+  <si>
+    <t>도망쳐야 해요…!</t>
+  </si>
+  <si>
+    <t>같이 가요! 어서!</t>
+  </si>
+  <si>
+    <t>일단은… 대피소로 가야겠어요.</t>
+  </si>
+  <si>
+    <t>지금은 방법이 없어요. 싫다면 따라오지 않으셔도 됩니다.</t>
+  </si>
+  <si>
+    <t>제 곁에서 떨어지지 마세요. 이쪽이에요.</t>
+  </si>
+  <si>
+    <t>감사합니다.</t>
+  </si>
+  <si>
+    <t>저희도 머물 곳을 찾아봐요.</t>
+  </si>
+  <si>
+    <t>저 잠깐 바깥 좀 보고 올게요.</t>
+  </si>
+  <si>
+    <t>역시… 대피소도 안전하지 않구나.</t>
+  </si>
+  <si>
+    <t>…여기에 머무는 게 맞을까?</t>
+  </si>
+  <si>
+    <t>엄마, 아빠… 저 나갔다 올게요.</t>
+  </si>
+  <si>
+    <t>밖에 나가서 이 사태를 해결할 방법을 찾을래요.</t>
+  </si>
+  <si>
+    <t>저 이래 봬도 꽤 세요. 저 못 믿으세요?</t>
+  </si>
+  <si>
+    <t>약속할게요. 금방 돌아올 거예요.</t>
+  </si>
+  <si>
+    <t>맞는데, 왜 그러시죠?</t>
+  </si>
+  <si>
+    <t>좋습니다, 도와드리죠.</t>
+  </si>
+  <si>
+    <t>…시신 수습하고, 돌아가죠.</t>
+  </si>
+  <si>
+    <t>앞으로 저도 여기 머물러도 될까요?</t>
+  </si>
+  <si>
+    <t>정말 제가 해도 괜찮은 거라면… 알겠어요. 해 볼게요, 길드장.</t>
+  </si>
+  <si>
+    <t>우리 부모님은?</t>
+  </si>
+  <si>
+    <t>좋아, 그럼 어서 가자.</t>
+  </si>
+  <si>
+    <t>엄마, 아빠! 저 약속 지켰죠?</t>
+  </si>
+  <si>
+    <t>앞으로는 여기서 지내시면 돼요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "그건 우리가 할 말이야. 정말… 정말 다행이다, 무사해서."
+부모님이 울컥하는 얼굴로 당신을 바라봅니다. 당신의 손을 맞잡은 어머니의 손이 가늘게 떨리고 있네요. 부모님도 마음고생이 심하셨을 거예요.
+ "그런데 어떻게 여기까지 온 거야. 안전한 데 있지 않고 위험하게…!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콰과광-
+부모님의 물음에 당신이 대답하려는 찰나, 굉음과 함께 바닥에서 진동이 느껴지기 시작합니다.
+ "으윽…!"
+당신은 넘어지려는 어머니를 붙잡았습니다. 바닥에서 끊임없이 진동이 느껴지네요. 왠지 불길한 예감이 듭니다.
+쿵- 쿠궁-
+연이어 들려오는 폭발음들. 분위기가 심상치 않습니다. 건물이 계속해서 흔들리고 있어요. 마치… 언제 무너져도 이상하지 않을 것처럼요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험을 직감한 당신은 부모님을 데리고 도망치려 했습니다. 그런데…
+ "잠깐만, OO아…!"
+어머니가 당신의 손을 놓더니 건물 구석으로 향하는군요.
+ "일어나요! 여기서 나가야 해요!"
+구석에서 웬 남자, 여자, 그리고 아이가 걸어나옵니다. 그러고 보니 부모님이 아이를 잃어버린 부부를 따라 그룹을 나갔다고 했었던가요? 저 사람들이 그 부부와 아이인가 봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊은 부부가 눈치를 살피다 서둘러 당신 부모님 곁에 섭니다.
+당신은 곧 부모님, 그리고 젊은 부부와 아이를 데리고 나갈 길을 찾기 시작했어요.
+쿠르릉- 캬악-
+점점 심해지는 진동과 천장에서 떨어지는 부스러기, 그리고 그 틈에 섞여 들려오는 괴성까지… 불안이 밀려옵니다. 하지만 금방이라도 무너질 것 같은 건물 안에 가만히 머물고만 있을 수도 없는 노릇이니까요. 무사히 나가기만을 비는 수밖에 없겠군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠웅- 콰과과광-
+방금 전까지 당신이 있던 건물의 상층부가 산산조각으로 부서집니다.
+ "꺄악…!"
+ "도, 도망쳐….!"
+ "으으…"
+당신과 마찬가지로 건물에서 나온 사람들이 겁에 질려 여기저기로 흩어지네요. 당신을 따라 도망쳐 나온 부모님과 젊은 부부도 어쩔 줄 몰라 하는 눈치입니다.
+건물을 나온 것까진 좋은데 앞으로 어떻게 해야 하는 걸까요? 집으로 돌아가 봤자, 이 건물처럼 무너지거나 망가졌을 게 뻔한데 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "대피소? 대피소라고 안전할까요…?"
+젊은 부부 중 남편이 의문을 표합니다. 사실 당신도 대피소가 그리 미덥지는 못하다고 생각하고 있어요. 하지만 그렇다고 해서 부모님을 모시고 떠돌아다닐 수도 없으니 어떡하겠어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "그런 뜻은 아니었습니다… 그냥, 대피소라고 무사할까 싶어서…"
+ "그래도 대피손데, 여기보다 낫지 않겠어요? 우리 같이 가요."
+어머니가 젊은 부부를 다독입니다. 젊은 부부가 서로를 보다가 고개를 끄덕이네요. 당신의 부모님은 무조건 당신 뜻에 따르겠다는 듯 다정한 눈으로 당신을 바라보고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 대피소에 도착했습니다. 이 대피소는 그래도 비교적 상태가 양호해 보이네요. 군인들이 보초를 서고 있는 게, 아무래도 군에서도 이 대피소를 관리하는 모양이에요.
+ "정지해 주십시오. 검문부터 하겠습니다. 신분증 가지고 계십니까?"
+대피소를 지키는 군인이 당신 일행을 가로막고 묻습니다. 당신과 부모님, 그리고 젊은 부부는 신분증을 꺼내 군인에게 보여 줬어요.
+군인이 태블릿을 만지작거리는 걸 보니 신분을 조회하는 모양인데… 그래도 아직 사회 기반 시스템이 완전히 무너지지는 않았나 봐요.
+ "조회 완료했습니다. 안으로 들어가십시오."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "저… 저흰 이만 저쪽으로 가 보겠습니다. 그동안 도와주셔서 정말 감사했어요."
+대피소로 들어서자, 젊은 부부가 당신과 부모님에게 인사를 건넵니다.
+ "그래요, 그동안 정말 고생 많았어요. 여기에서도 계속 볼 테니까 도움 필요하면 언제든 말하고. 알았죠?"
+ "네… 정말 감사해요."
+부부는 당신의 부모님에게 몇 번이나 고개를 숙이며 인사한 뒤에야 자리를 떠났습니다. 부모님과 셋만 남으니 새삼스럽게 이 상황이 실감 나네요. 돌아갈 집은 없고, 남은 거라곤 오직 가족뿐인 이 상황이 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "그래, 그러자. 어디…"
+탕- 탕탕-!
+부모님과 함께 머물 곳을 찾아보려는데 바깥에서 시끄러운 소리가 울리기 시작합니다. 이건 총 소리, 그리고…
+캬아아악-
+괴물의 소리군요…! 밖에서 싸움이 벌어졌나 봐요. 이런 게 한두 번이 아닌 듯, 대피소에 머무는 다른 사람들은 놀라지도 않는 모습이지만요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "뭐? 위험하게 왜…"
+부모님이 만류했지만 당신은 바깥 상황을 보러 나갔습니다.
+대피소를 향해 달려오는 괴물들과 정신 없이 총을 쏘아 대는 군인들. 대피소 주변은 그야말로 난장판, 아니, 전쟁통이었습니다.
+아직까진 군인들이 건재하지만, 과연 얼마나 버틸 수 있을까요? 군인들의 지친 얼굴을 보고 있자니 마음이 착잡해져 옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 심란한 마음으로 부모님께 돌아갔습니다.
+ "괜히 나갔다가 다치기라도 하면 어쩌려고…! 우리가 머물 곳 찾아 놨다. 얼른 가서 쉬자."
+부모님이 당신을 데리고 대피소 한구석으로 향합니다. 천막으로 된 칸막이가 겹겹이 드리워진 공간, 그 중 비어 있는 한 곳이 당신과 부모님이 머물 자리였어요. 셋이서 누우면 남는 공간이 거의 없을 것 같군요.
+ "그나마 여기가 제일 나은 곳이야. 괜찮은 덴 이미 다른 사람들이 있어서…"
+ "다들 고생을 많이 해서 그런가, 경계가 여간 심하게 아니더라. 여기도 겨우 찾은 거다."
+ "필요한 물품은 저-기 가서 받으면 된다고 하는데… 음… 좀 정신없어 보이더구나. 싸우는 사람들도 있고…"
+부모님의 말에 당신은 주변을 살며시 둘러봤습니다. 다른 칸에 있는 사람들이 이쪽을 힐끔힐끔 하고 있네요. 그런데 사람들의 눈초리가 꽤나 사납습니다. 아마 당신과 부모님을 경쟁자라고 생각하는 게 아닐까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신의 머릿속에 문득 의문이 떠오릅니다.
+여기에만 있어서는 상황이 나아질 것 같지가 않아요. 얼마 간의 안전은 보장할 수 있겠지만 그것도 오래 갈 것 같지는 않습니다.
+근본적으로 이 상황에서 벗어나려면… 아무래도 여길 나가야겠어요. 나가서 바깥의 문제를 해결해야 여기도 안정을 찾을 겁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "나갔다 온다니…? 어딜 갔다 온다는 거야?"
+부모님이 화들짝 놀라 당신을 붙잡습니다. 하지만 당신은 이미 결심을 마쳤어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 부모님에게 차분히 당신의 생각을 말했습니다. 당신이 말을 하면 할수록 부모님의 얼굴이 어두워지는군요.
+ "네가 뭘 할 수 있다고 나간다는 거야…"
+ "우리가 말려도 갈 생각이지?"
+아버지가 낮게 가라앉은 시선을 당신에게 보냅니다. 당신은 그 시선을 받아 내며 고개를 끄덕였어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 일부러 유쾌하게 말했지만, 어머니는 고개를 푹 숙이고 맙니다. 당신을 잡을 수 없다는 걸 직감하신 거겠죠.
+ "…위험한 짓은 안 하겠다고 약속해라. 안 되겠다 싶으면 도망쳐."
+ "그래, 맞아. 꼭 무사히 돌아온다고 약속해. 그래야 보내 줄 거야."
+당신은 손을 내밀고 어머니의 새끼손가락에 당신의 새끼손가락을 걸었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락을 걸고 약속한 당신은 부모님의 배웅을 받으며 대피소를 떠났습니다.
+솔직히 무엇을 해야 할지 아직은 막막하지만, 모험을 계속하다 보면 답이 나오겠죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저벅-
+근처에서 낯선 발걸음 소리가 들려옵니다. 소리를 들어보니 일정하게 울리는 게 다급한 상황에 처한 사람은 아닌 것 같아요. 그래서 당신은 일단 가만히 있기로 했습니다.
+ "찾았다! 혹시 OO 님 아니신가요?"
+모퉁이를 돌아 나온 한 무리의 사람들이 당신을 보며 아는 체합니다. 분위기를 보아 하니 일부러 당신을 찾아온 것 같은데, 무슨 일인 걸까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "저희 길드원들 몇 명이 몬스터를 처치하러 갔는데… 한참이 지나도 돌아오지 않고 있어서요. 도움을 청하러 왔습니다. 저희를 도와주실 수 없을까요? 사례는 부족하지 않게 하겠습니다…!"
+무리의 리더로 보이는 남자가 당신을 향해 허리를 깊게 숙여 보입니다. 남자를 비롯한 무리 사람들의 차림새를 보니 꽤 숙련된 헌터인 듯한데… 길드원들이 돌아오지 않고 있다니 심각한 상황이긴 하네요. 처치하려던 몬스터가 꽤 강한 모양이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "정말입니까? 감사합니다! 정말 감사합니다!!"
+남자를 비롯한 한 무리의 사람들이 안도의 한숨을 내쉬며 서로를 얼싸안습니다.
+ "길드원들이 돌아오지 않은 지 좀 돼서… 자세한 건 가면서 설명하겠습니다. 저희를 따라오시죠."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신과 길드원들을 몰아붙였던 몬스터가 마침내 쓰러졌습니다. 하지만 희생이 너무 크군요. 살아 있는 길드원을 손으로 꼽을 수 있을 정도니 말이에요.
+ "헉… 물리쳤… 물리쳤다… 진짜로…"
+ "하지만 다들…"
+살아남은 길드원들이 일어나지 않는 동료들을 보며 눈시울을 붉힙니다. 한참을 말없이 있던 그들은 어느 순간 하나둘 당신을 보기 시작했어요. 당신을 향한 신뢰가 가득한 눈빛으로 말이에요.
+당신은 비록 길드 소속은 아니지만, 저들에게 있어서 이미 리더나 다름없었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 길드원들이 당신의 말에 반색하며 동료들의 시신을 수습하기 시작합니다. 당신도 길드원들과 함게 시신을 수습하고 주변을 정리했어요. 전투의 흔적들이 조금씩 지워져 갔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 길드원들과 함께 아지트로 돌아왔습니다.
+길드원들이 멍한 얼굴로 앉아 있는 모습을 보니 당신의 마음도 무거워집니다. 남은 길드원이 지금 여기 있는 이들뿐이라는 게 더욱 와 닿아요. 길드장까지 잃었으니, 누군가 중심을 잡아 주지 않으면 모두 뿔뿔이 흩어져 버릴지도 모르겠군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 조심스럽게 묻자 남은 길드원들이 당신을 바라봅니다.
+ "우리 길드에 들어오겠단 거예요?"
+ "저, 저는 좋아요! 아니, 아예 길드장이 돼 주세요!"
+ "맞아요. 우리 중엔 길드장을 맡을 만한 사람이 없어요. 하지만 당신이라면… 믿고 따를 수 있을 것 같아요."
+길드원들이 기대에 찬 눈빛을 보냅니다. 모두들 동의하는 듯하니 이참에 길드장을 해 보는 것도 나쁘지는 않을 것 같군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두의 동의를 얻어, 당신은 길드장이 되었습니다. 책임져야 하는 사람들이 생긴 건 조금 부담스럽지만, 여럿인 만큼 더 많은 일을 할 수 있겠죠?
+이 길드가 당신의 모험에 부디 도움이 되었으면 좋겠네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "마스터, 새로운 아지트가 완성됐어요. 같이 보러 가요!"
+길드원 중 하나가 반가운 소식을 전해 옵니다.
+당신의 길드는 차근차근 성장해서 어느덧 꽤 이름을 날리는 길드가 되었어요. 들어오는 의뢰를 하나둘 처리하면서 자금 사정도 좋아지고, 아지트를 꽤 그럴싸한 곳으로 옮길 수 있게 되었죠. 오늘은 바로 그 새로운 아지트가 완성된 날이고요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "당연히 모시러 갔죠. 저희가 도착할 때쯤이면 부모님도 도착하실 거예요."
+길드원이 싱글벙글한 얼굴로 대답합니다. 반가운 소식을 들으니 당신의 기분도 덩달아 들뜨는 것만 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "OO아!!"
+새로운 아지트에 도착하자, 부모님이 당신을 향해 달려옵니다. 부모님을 보는 게 얼마 만인지 모르겠어요. 무사한 부모님을 보니 안심이 되면서도, 많이 고생하신 것 같아서 마음이 쓰립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "그런 말이나 할 때니…! 우리가 얼마나 걱정했는데…!"
+당신을 안고 있던 어머니가 당신의 등을 내리칩니다. 어머니 딴에는 나름 힘을 준다고 한 것 같은데, 지금의 당신에게는 아프기는커녕 간지럽기만 하네요. 조금은 그리운 것도 같고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 부모님에게 이곳이 어디인지 설명했습니다. 당신이 길드장이라는 것, 그리고 이곳이 당신 길드의 아지트라는 얘기에 부모님이 몹시 놀란 눈치네요.
+멍하니 아지트를 둘러보다가 당신을 보기를 반복하는 부모님. 그 모습을 보니 웃음이 나오면서 가슴이 따뜻해집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상은 아직 게이트를 닫는 법을 찾지 못했고, 여전히 몬스터와 괴현상들로 인해 혼란스럽습니다. 하지만 그 혼란 속에서도 새로운 질서는 세워졌어요.
+이제 사람들은 새로운 질서에 적응했고, 혼란스러운 세상을 살아 가는 법을 터득했습니다. 당신도 그중의 한 명이죠. 아니, 그중 한 명이란 말이 부족할 정도로 잘 적응했어요.
+당신의 길드는 대한민국에서 손꼽히는 길드로 거듭났습니다. 길드장인 당신을 모르는 사람도 거의 없을 정도죠. 위험한 몬스터가 출현하면 사람들은 이제 당신을 가장 먼저 찾습니다. 최고의 헌터라는 명예와 그에 걸맞은 부가 모두 당신의 것이에요.
+이 사태를 해결할 근본적인 방법을 찾지는 못했지만, 이 정도면 꽤 성공한 거 아닐까요? 계속 헌터 생활을 하다 보면 당신이 바랐던 목표를 이룰 수 있을지도 모르고요!
+당신은 세상의 혼란을 해결하기 위한 모험을 멈추지 않을 거예요. 비록 이야기는 여기에서 끝마치지만, 삶은 계속 이어질 테니까요.
+그럼… 계속해서 이어질 당신의 삶에 행운이 가득하길!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3563,6 +3840,9 @@
       <c r="C147" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="H147" s="3">
+        <v>2101</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
@@ -3574,6 +3854,9 @@
       <c r="C148" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="H148" s="3">
+        <v>2102</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
@@ -4106,6 +4389,9 @@
       <c r="C189" s="8" t="s">
         <v>214</v>
       </c>
+      <c r="K189" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
@@ -4146,7 +4432,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1152</v>
       </c>
@@ -4156,8 +4442,11 @@
       <c r="C193" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K193" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1152</v>
       </c>
@@ -4171,7 +4460,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="108" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1153</v>
       </c>
@@ -4182,7 +4471,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1153</v>
       </c>
@@ -4196,7 +4485,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="108" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>1154</v>
       </c>
@@ -4206,8 +4495,11 @@
       <c r="C197" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K197" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1154</v>
       </c>
@@ -4221,7 +4513,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="120" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1155</v>
       </c>
@@ -4231,8 +4523,11 @@
       <c r="C199" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K199" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1155</v>
       </c>
@@ -4246,7 +4541,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1156</v>
       </c>
@@ -4257,7 +4552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>1156</v>
       </c>
@@ -4271,7 +4566,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="108" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>1157</v>
       </c>
@@ -4282,7 +4577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>1157</v>
       </c>
@@ -4296,7 +4591,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>1158</v>
       </c>
@@ -4306,8 +4601,11 @@
       <c r="C205" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K205" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>1158</v>
       </c>
@@ -4321,7 +4619,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>1159</v>
       </c>
@@ -4332,7 +4630,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1159</v>
       </c>
@@ -4394,6 +4692,821 @@
       </c>
       <c r="C212" s="3" t="s">
         <v>194</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>1162</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>1162</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="120" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>1163</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K215" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>1163</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>1164</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>1164</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="108" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>1165</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K219" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>1165</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H220" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>117</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K221" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>117</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>1171</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K223" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>1171</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>1172</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>1172</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H226" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>118</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K227" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>118</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H228" s="3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>1181</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>1181</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H230" s="3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>1182</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K231" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>1182</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H232" s="3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>1183</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>1183</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H234" s="3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="204" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>1184</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K235" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>1184</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H236" s="3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>1185</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>1185</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>1186</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K239" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>1186</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>1187</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>1187</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>1188</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K243" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>1188</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H246" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <v>119</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K247" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>119</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H248" s="3">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="108" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>1191</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>1191</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H250" s="3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <v>1192</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>1192</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H252" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>120</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K253" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>120</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H254" s="3">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K255" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H256" s="3">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H258" s="3">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="108" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K259" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H262" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>121</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K263" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>121</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H264" s="3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H266" s="3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K267" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H268" s="3">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>1213</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>1213</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>1214</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K271" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>1214</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H272" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>122</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K273" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
